--- a/config_2.2/fish_3d_yutu_random_2.xlsx
+++ b/config_2.2/fish_3d_yutu_random_2.xlsx
@@ -1476,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1896,10 +1896,10 @@
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="23">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="H17" s="23">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1920,10 +1920,10 @@
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="23">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="H18" s="23">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1944,10 +1944,10 @@
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="23">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="H19" s="23">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1968,10 +1968,10 @@
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="23">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="H20" s="23">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
   </sheetData>
